--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1908648.514252589</v>
+        <v>2020380.733229426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5423267.726387397</v>
+        <v>5922975.008726668</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.5716186828009</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>326.8753561036517</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>14.14416275345326</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>258.904775583811</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>64.32458389125834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>283.1855649829844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.24876144511784</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>77.14734586002483</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,19 +1138,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>289.4923427674577</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>141.7246276011664</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.5333222040696</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>28.46824604904437</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257963</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>356.6112995685785</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>144.4937753855482</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2008,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>65.54144271872502</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>98.34385133095624</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2245,10 +2247,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>145.8285166974201</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>240.4911776300921</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>132.9029306024363</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>41.00451938202536</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2764,10 +2766,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.0131344328856</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>22.56919457453911</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045956</v>
       </c>
     </row>
     <row r="35">
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3512,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948836</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>155.4289015982187</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>26.27730265298732</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.13954148002308</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3977,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4028,13 +4030,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>236.7304071971278</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4138,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978643</v>
       </c>
       <c r="G46" t="n">
-        <v>3.13954148002308</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>24.62703520776331</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2479.623634536778</v>
+        <v>846.680625966315</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.481161720201</v>
+        <v>418.0989517035833</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.571376894645</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>2654.14371650258</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>2649.897996842637</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>1351.309055163234</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>233.2795245870971</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>67.68824961292478</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1009.124818325058</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1009.124818325058</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1009.124818325058</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>763.7330636584709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>1149.598575707876</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>1115.496506931703</v>
       </c>
       <c r="D5" t="n">
-        <v>508.3604142570537</v>
+        <v>1083.627126146552</v>
       </c>
       <c r="E5" t="n">
-        <v>478.6260734557529</v>
+        <v>1053.892785345251</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>626.0253557544586</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726453</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726453</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726453</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726453</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1596.060975781574</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1191.205521192607</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1176.103461812322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1171.857742152379</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K6" t="n">
-        <v>515.0619848335836</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="L6" t="n">
-        <v>515.0619848335836</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="M6" t="n">
-        <v>515.0619848335836</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="N6" t="n">
-        <v>515.0619848335836</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="O6" t="n">
-        <v>515.0619848335836</v>
+        <v>674.5331706342562</v>
       </c>
       <c r="P6" t="n">
-        <v>1175.902039375362</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>952.7834931631147</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>780.2217816463397</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>614.3437888478624</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2422.274896199404</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434796</v>
+        <v>2176.395449777859</v>
       </c>
       <c r="U7" t="n">
-        <v>2210.968635687901</v>
+        <v>2176.395449777859</v>
       </c>
       <c r="V7" t="n">
-        <v>1924.013127558332</v>
+        <v>1889.43994164829</v>
       </c>
       <c r="W7" t="n">
-        <v>1651.986723144624</v>
+        <v>1617.413537234581</v>
       </c>
       <c r="X7" t="n">
-        <v>1406.594968478036</v>
+        <v>1372.021782567994</v>
       </c>
       <c r="Y7" t="n">
-        <v>1179.175297792144</v>
+        <v>1144.602111882102</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705998</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>790.1396618744722</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1319.166405466011</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1319.166405466011</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1319.166405466011</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862318</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374606</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374606</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772707</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.84757818374</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763051</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1319.166405466011</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.1900728172352</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7176746309499</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677761</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677761</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>490.3179338713425</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>490.3179338713425</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>490.3179338713425</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>56.54318902963762</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963762</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>1396.102936374607</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>1396.102936374607</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127229</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085824</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2463.445806339735</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2100.828856273562</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1695.973401684595</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1276.830938263905</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>916.6175043562503</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7176746309499</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,16 +5542,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257732</v>
@@ -5595,25 +5597,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1686.710109957756</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.6588228237728</v>
+        <v>982.1554751127542</v>
       </c>
       <c r="C19" t="n">
-        <v>699.0971113069977</v>
+        <v>809.5937635959791</v>
       </c>
       <c r="D19" t="n">
-        <v>533.2191185085204</v>
+        <v>643.7157707975018</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>473.9577670482391</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>473.9577670482391</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>308.3664920740667</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>168.4643177644413</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5692,31 +5694,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2619.583226606956</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T19" t="n">
-        <v>2373.703780185412</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U19" t="n">
-        <v>2095.270779438517</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V19" t="n">
-        <v>1808.315271308948</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W19" t="n">
-        <v>1536.288866895239</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X19" t="n">
-        <v>1290.897112228652</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1063.47744154276</v>
+        <v>982.1554751127542</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>269.4112304877946</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1103.761522445973</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2178.821488698832</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M20" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5783,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5999,7 +6001,7 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6130,16 +6132,16 @@
         <v>718.7067280397266</v>
       </c>
       <c r="E25" t="n">
-        <v>548.9487242904638</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>372.24167025222</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6306,25 +6308,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1466.684448215751</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1466.684448215751</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6412,22 +6414,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1196.430565563404</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.781058858859</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.705462642043</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2428.826016220498</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.393015473603</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.411102930325</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>2612.502369310543</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O32" t="n">
-        <v>4875.533979193861</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.8191652369919</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7084,10 +7086,10 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,16 +7119,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
         <v>2117.975449367836</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>228.524776110223</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>228.524776110223</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L38" t="n">
-        <v>1303.584742363082</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M38" t="n">
-        <v>2460.632577573633</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N38" t="n">
-        <v>3586.36356101008</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7260,7 +7262,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1792.237621104267</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1354.09514828769</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>918.1853634621348</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>484.4106186204299</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963762</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677762</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094007</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162024</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>2139.818986914646</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>2139.818986914646</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.25275571192</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>2223.635805645746</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>1818.780351056779</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>1792.237621104267</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>1792.237621104267</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>4995.869235444639</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>5049.586575987362</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>4919.407932317964</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>4743.071385317932</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C43" t="n">
-        <v>571.6407042629868</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D43" t="n">
-        <v>405.7627114645095</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E43" t="n">
-        <v>236.0047077152468</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F43" t="n">
-        <v>59.29765367700296</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677762</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>345.6733435864214</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>345.6733435864214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>345.6733435864214</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>345.6733435864214</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677762</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677762</v>
+        <v>1216.418546567716</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677762</v>
+        <v>2291.478512820575</v>
       </c>
       <c r="M44" t="n">
-        <v>750.6905954094007</v>
+        <v>2291.478512820575</v>
       </c>
       <c r="N44" t="n">
-        <v>1445.254791162024</v>
+        <v>3417.209496257022</v>
       </c>
       <c r="O44" t="n">
-        <v>2139.818986914646</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838881</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2004.256955781331</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1599.401501192365</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1180.259037771676</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>771.9729140713291</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>292.7279083841068</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677762</v>
+        <v>127.1366334099345</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611149</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8292,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.4873165037805</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>503.4343826282369</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>364.4204720929797</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>79.58635534528503</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9419,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,10 +9649,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>671.1057765021969</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>127.5393291307509</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>685.7606250949678</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>106.6699402592735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.219724947342</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.59196289476455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.23190701434639</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>59.30510368402706</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>29.11146680044124</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.446659489829557</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>35.15749310933379</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.9308428424052</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.0797604404442</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
     </row>
     <row r="35">
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>388.6737361334951</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829614</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2603733683839</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>113.8761173587659</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>508411.9289220215</v>
+        <v>500929.0276874211</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>508411.9289220215</v>
+        <v>507270.1888990588</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340527.4070637551</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340527.4070637551</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514488.4452627471</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340527.4070637551</v>
+        <v>514488.4452627472</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340527.4070637552</v>
+        <v>514488.4452627471</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
         <v>447828.9465167494</v>
@@ -26335,25 +26337,25 @@
         <v>447828.9465167495</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167495</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167493</v>
       </c>
       <c r="N2" t="n">
+        <v>447828.9465167493</v>
+      </c>
+      <c r="O2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="P2" t="n">
         <v>447828.9465167494</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296407.1037349764</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296407.1037349764</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045611</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340718</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139383.7472389045</v>
+        <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389045</v>
+        <v>146735.164794785</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
@@ -26451,13 +26453,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125587</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18429.25152214013</v>
+        <v>66544.60005410176</v>
       </c>
       <c r="C6" t="n">
-        <v>242128.9501061852</v>
+        <v>170446.0754090434</v>
       </c>
       <c r="D6" t="n">
-        <v>242128.9501061852</v>
+        <v>230601.3545562024</v>
       </c>
       <c r="E6" t="n">
-        <v>216361.7602241133</v>
+        <v>146632.6467599944</v>
       </c>
       <c r="F6" t="n">
-        <v>226532.7568245695</v>
+        <v>328987.7559810441</v>
       </c>
       <c r="G6" t="n">
-        <v>170928.2790349349</v>
+        <v>328987.7559810443</v>
       </c>
       <c r="H6" t="n">
-        <v>328987.7559810442</v>
+        <v>328987.7559810443</v>
       </c>
       <c r="I6" t="n">
         <v>328987.7559810443</v>
       </c>
       <c r="J6" t="n">
-        <v>154336.4072633382</v>
+        <v>217973.2906360542</v>
       </c>
       <c r="K6" t="n">
-        <v>328987.7559810443</v>
+        <v>275941.9013422718</v>
       </c>
       <c r="L6" t="n">
-        <v>328987.7559810443</v>
+        <v>319595.454254422</v>
       </c>
       <c r="M6" t="n">
-        <v>320498.6742777036</v>
+        <v>176787.5850430565</v>
       </c>
       <c r="N6" t="n">
         <v>328987.7559810441</v>
       </c>
       <c r="O6" t="n">
-        <v>226532.7568245695</v>
+        <v>328987.7559810444</v>
       </c>
       <c r="P6" t="n">
-        <v>226532.7568245696</v>
+        <v>328987.7559810442</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.4649560972578</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>104.6753308736482</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>124.358989813076</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.74389515561472</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,76 +27615,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>367.2261030860416</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>114.1982880799844</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T5" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U5" t="n">
-        <v>256.6300796561533</v>
-      </c>
-      <c r="V5" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>80.50160915495847</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>69.49843779805406</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>29.11146680044089</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611149</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.4873165037805</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>503.4343826282369</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>364.4204720929797</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>79.58635534528503</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36139,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,10 +36369,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>671.1057765021969</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>127.5393291307509</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37561,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>685.7606250949678</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2020380.733229426</v>
+        <v>2019855.550860394</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5922975.008726668</v>
+        <v>5922975.008726669</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>243.277230873697</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>326.8753561036517</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>19.47644037711871</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>258.904775583811</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>245.404223205255</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>283.1855649829844</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -955,16 +955,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964585</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>77.14734586002483</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>287.0614626441343</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1147,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>289.4923427674577</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766995</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117708</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>108.5103196251626</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.71811217257963</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738361</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>65.54144271872502</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,10 +2247,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>145.8285166974201</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>132.9029306024363</v>
+        <v>65.07405371603534</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2535,13 +2535,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247631</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T31" t="n">
-        <v>240.273786227905</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3246,16 +3246,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>67.84972440587271</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.3792913045956</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665263</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3480,19 +3480,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045985</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948836</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>219.2875345484105</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.4289015982187</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0564930766996</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3954,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978643</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>24.62703520776331</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>547.9560900011804</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1217.07884972191</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1201.976790341625</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>793.6906666412784</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>763.7330636584709</v>
+        <v>766.5367714259833</v>
       </c>
       <c r="C4" t="n">
-        <v>763.7330636584709</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="D4" t="n">
-        <v>597.8550708599936</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
         <v>428.0970671107308</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00315850392299</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>341.7616130750586</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1009.124818325058</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1009.124818325058</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>1009.124818325058</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X4" t="n">
-        <v>763.7330636584709</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="Y4" t="n">
-        <v>763.7330636584709</v>
+        <v>786.209943524083</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1149.598575707876</v>
+        <v>787.7865915094034</v>
       </c>
       <c r="C5" t="n">
-        <v>1115.496506931703</v>
+        <v>539.9035377667216</v>
       </c>
       <c r="D5" t="n">
-        <v>1083.627126146552</v>
+        <v>508.0341569815701</v>
       </c>
       <c r="E5" t="n">
-        <v>1053.892785345251</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>626.0253557544586</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>557.7649106726453</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726453</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726453</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726453</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
         <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530731</v>
+        <v>2301.552102346893</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847747</v>
+        <v>2042.32979966391</v>
       </c>
       <c r="V5" t="n">
-        <v>1596.060975781574</v>
+        <v>2042.32979966391</v>
       </c>
       <c r="W5" t="n">
-        <v>1191.205521192607</v>
+        <v>1637.474345074943</v>
       </c>
       <c r="X5" t="n">
-        <v>1176.103461812322</v>
+        <v>1218.331881654254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1171.857742152379</v>
+        <v>810.0457579539071</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>50.4323865894771</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>50.4323865894771</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.4323865894771</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>50.4323865894771</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>50.4323865894771</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>50.4323865894771</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342562</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>952.7834931631147</v>
+        <v>593.0357356940385</v>
       </c>
       <c r="C7" t="n">
-        <v>780.2217816463397</v>
+        <v>420.4740241772635</v>
       </c>
       <c r="D7" t="n">
-        <v>614.3437888478624</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="E7" t="n">
-        <v>444.5857850985996</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606127</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
         <v>743.4007229285737</v>
@@ -4740,37 +4740,37 @@
         <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639181</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2422.274896199404</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2176.395449777859</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>2176.395449777859</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1889.43994164829</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1617.413537234581</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1372.021782567994</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1144.602111882102</v>
+        <v>784.8543544130257</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.919211788425</v>
+        <v>428.7930370433824</v>
       </c>
       <c r="C8" t="n">
-        <v>829.7767389718487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.422015902528</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1713.566561313561</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.464501933276</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.218782273333</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5050,10 +5050,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
         <v>3569.079287993934</v>
@@ -5132,13 +5132,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3575.440564248063</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C13" t="n">
-        <v>3402.878852731288</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D13" t="n">
-        <v>3237.000859932811</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E13" t="n">
-        <v>3067.242856183548</v>
+        <v>554.1655527429559</v>
       </c>
       <c r="F13" t="n">
-        <v>2890.535802145304</v>
+        <v>377.4584987047122</v>
       </c>
       <c r="G13" t="n">
-        <v>2724.944527171132</v>
+        <v>211.8672237305398</v>
       </c>
       <c r="H13" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>4588.729566370543</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>4301.774058240973</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>4029.747653827265</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X13" t="n">
-        <v>3994.678853652942</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y13" t="n">
-        <v>3767.25918296705</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5278,28 +5278,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5445,43 +5445,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S16" t="n">
         <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5554,13 +5554,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>982.1554751127542</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>809.5937635959791</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>643.7157707975018</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>473.9577670482391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>473.9577670482391</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>308.3664920740667</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>168.4643177644413</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5694,31 +5694,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878942</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465233</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127542</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>809.5937635959755</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>643.7157707974982</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>643.7157707974982</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
         <v>496.4142387799021</v>
@@ -5949,13 +5949,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.146432354979</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C25" t="n">
-        <v>884.5847208382039</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D25" t="n">
-        <v>718.7067280397266</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X25" t="n">
-        <v>1476.384721759858</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y25" t="n">
-        <v>1248.965051073966</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,25 +6308,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1466.684448215751</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1466.684448215751</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2612.502369310543</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C34" t="n">
         <v>1008.757289365886</v>
@@ -6894,16 +6894,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="35">
@@ -6946,40 +6946,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7013,13 +7013,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8191652369919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1181.319000882658</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>1008.757289365883</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674056</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181429</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387798992</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057268</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7128,19 +7128,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601645</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.023562068816</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321675</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532226</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968673</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961042</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7420,40 +7420,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.187678435286</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>917.6259669185112</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>751.7479741200339</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>581.9899703707711</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>405.2829163325273</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>239.691641358355</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1509.425967840165</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.006297154273</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,49 +7651,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1216.418546567716</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2291.478512820575</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2291.478512820575</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3417.209496257022</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.389162827329</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716164</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D46" t="n">
-        <v>639.1929661716164</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E46" t="n">
-        <v>469.4349624223536</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F46" t="n">
-        <v>292.7279083841068</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>127.1366334099345</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.39342414375217</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>72.80589558611149</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>503.4343826282369</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8388,13 +8388,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>364.4204720929797</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>20.13097499434645</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426497</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>301.8344985190274</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>671.1057765021969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,13 +10357,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>606.9002735643694</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>685.7606250949678</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.99283294136664</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>208.219724947342</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.7661826744377</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>22.23190701434639</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.11146680044124</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.15749310933379</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T31" t="n">
-        <v>3.146865729424235</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>117.7661826744343</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>56.36113619101519</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.446659489829614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>113.8761173587659</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514488.4452627472</v>
+        <v>514488.4452627471</v>
       </c>
     </row>
     <row r="6">
@@ -26319,43 +26319,43 @@
         <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="E2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="F2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="G2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="I2" t="n">
         <v>447828.9465167494</v>
-      </c>
-      <c r="F2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="G2" t="n">
-        <v>447828.9465167496</v>
-      </c>
-      <c r="H2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="I2" t="n">
-        <v>447828.9465167495</v>
       </c>
       <c r="J2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="L2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="M2" t="n">
         <v>447828.9465167496</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>447828.9465167495</v>
-      </c>
-      <c r="M2" t="n">
-        <v>447828.9465167493</v>
-      </c>
-      <c r="N2" t="n">
-        <v>447828.9465167493</v>
       </c>
       <c r="O2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501625</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998269</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877258</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622249</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.164794785</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991265</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26450,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991266</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>66544.60005410176</v>
       </c>
       <c r="C6" t="n">
-        <v>170446.0754090434</v>
+        <v>170446.0754090436</v>
       </c>
       <c r="D6" t="n">
-        <v>230601.3545562024</v>
+        <v>230601.3545562022</v>
       </c>
       <c r="E6" t="n">
-        <v>146632.6467599944</v>
+        <v>146609.422420612</v>
       </c>
       <c r="F6" t="n">
-        <v>328987.7559810441</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="G6" t="n">
-        <v>328987.7559810443</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="H6" t="n">
-        <v>328987.7559810443</v>
+        <v>328964.5316416616</v>
       </c>
       <c r="I6" t="n">
-        <v>328987.7559810443</v>
+        <v>328964.5316416615</v>
       </c>
       <c r="J6" t="n">
-        <v>217973.2906360542</v>
+        <v>217950.0662966715</v>
       </c>
       <c r="K6" t="n">
-        <v>275941.9013422718</v>
+        <v>275918.677002889</v>
       </c>
       <c r="L6" t="n">
-        <v>319595.454254422</v>
+        <v>319572.2299150392</v>
       </c>
       <c r="M6" t="n">
-        <v>176787.5850430565</v>
+        <v>176764.3607036741</v>
       </c>
       <c r="N6" t="n">
-        <v>328987.7559810441</v>
+        <v>328964.5316416616</v>
       </c>
       <c r="O6" t="n">
-        <v>328987.7559810444</v>
+        <v>328964.5316416617</v>
       </c>
       <c r="P6" t="n">
-        <v>328987.7559810442</v>
+        <v>328964.5316416617</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939314</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939314</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939314</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>178.7593439063617</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>104.6753308736482</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>170.4239921546785</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>16.74389515561472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27602,10 +27602,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>188.356824883156</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>114.1982880799844</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682155</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>80.50160915495847</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>146.6995854442766</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>69.49843779805406</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-6.574194573146799e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-8.196849821927951e-13</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-8.097447917642177e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.926996186246196e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30161,7 +30161,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.39342414375217</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34877,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>72.80589558611149</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>503.4343826282369</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>364.4204720929797</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>20.13097499434645</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35418,13 +35418,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645577</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -36062,7 +36062,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821575</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426497</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>301.8344985190274</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>671.1057765021969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>606.9002735643694</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38019,7 +38019,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>685.7606250949678</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
